--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r105_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -938,10 +950,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -985,28 +997,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1031,28 +1043,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1198,10 +1210,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1245,28 +1257,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1291,28 +1303,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1400,10 +1412,10 @@
       <c r="I44">
         <f>((C44-C43)^2+(D44- D43)^2)^.5</f>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="2" t="s">
+      <c r="J44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L44" t="n">
@@ -1447,28 +1459,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="2">
+      <c r="A46" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D46" t="s" s="2">
+      <c r="C46" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1493,28 +1505,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I48" t="s" s="2">
+      <c r="I48" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1746,10 +1758,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1793,28 +1805,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1839,28 +1851,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1919,10 +1931,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1966,28 +1978,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2012,28 +2024,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2121,10 +2133,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2168,28 +2180,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2214,28 +2226,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2294,10 +2306,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K75" s="2" t="s">
+      <c r="J75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2341,28 +2353,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s" s="2">
+      <c r="C77" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2387,28 +2399,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2467,10 +2479,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K81" s="2" t="s">
+      <c r="J81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2514,28 +2526,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s" s="2">
+      <c r="C83" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2560,28 +2572,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2640,10 +2652,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2687,28 +2699,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2733,28 +2745,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2842,10 +2854,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2889,28 +2901,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2935,28 +2947,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3073,10 +3085,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3120,28 +3132,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3166,28 +3178,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3304,10 +3316,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3351,28 +3363,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3397,28 +3409,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3506,10 +3518,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3553,28 +3565,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3599,28 +3611,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3708,10 +3720,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3755,28 +3767,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3801,28 +3813,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3881,10 +3893,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3928,28 +3940,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3974,28 +3986,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4141,10 +4153,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4188,28 +4200,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4234,28 +4246,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4343,10 +4355,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4436,28 +4448,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4545,10 +4557,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4592,28 +4604,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4638,28 +4650,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4718,10 +4730,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K159" s="2" t="s">
+      <c r="J159" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4765,28 +4777,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D161" t="s" s="2">
+      <c r="C161" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4811,28 +4823,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4920,10 +4932,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4967,28 +4979,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5013,28 +5025,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5122,10 +5134,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5169,28 +5181,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5215,28 +5227,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5295,10 +5307,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="2" t="s">
+      <c r="J179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5342,28 +5354,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="2">
+      <c r="A181" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="2">
+      <c r="C181" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5388,28 +5400,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="2">
+      <c r="I183" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5468,10 +5480,10 @@
       <c r="I185">
         <f>((C185-C184)^2+(D185- D184)^2)^.5</f>
       </c>
-      <c r="J185" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K185" s="2" t="s">
+      <c r="J185" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K185" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L185" t="n">
@@ -5515,28 +5527,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="s" s="2">
+      <c r="A187" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="B187" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D187" t="s" s="2">
+      <c r="C187" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D187" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="E187" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F187" t="s" s="2">
+      <c r="F187" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G187" t="s" s="2">
+      <c r="G187" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H187" t="s" s="2">
+      <c r="H187" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5561,28 +5573,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C189" t="s" s="2">
+      <c r="C189" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D189" t="s" s="2">
+      <c r="D189" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I189" t="s" s="2">
+      <c r="I189" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5757,10 +5769,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5804,28 +5816,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5850,28 +5862,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5988,10 +6000,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6035,28 +6047,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6081,28 +6093,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6161,10 +6173,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6208,28 +6220,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6254,28 +6266,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6363,10 +6375,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6410,28 +6422,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6456,28 +6468,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6536,10 +6548,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6583,28 +6595,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6629,28 +6641,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6709,10 +6721,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6756,28 +6768,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6802,28 +6814,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6882,10 +6894,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6929,28 +6941,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6975,28 +6987,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7055,10 +7067,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7102,28 +7114,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7148,28 +7160,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7286,10 +7298,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7333,28 +7345,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7379,28 +7391,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7488,10 +7500,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7535,28 +7547,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7581,28 +7593,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7661,10 +7673,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7708,28 +7720,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7754,28 +7766,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7834,10 +7846,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7881,28 +7893,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7927,28 +7939,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8036,10 +8048,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8083,28 +8095,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8129,28 +8141,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8267,10 +8279,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8314,28 +8326,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8360,28 +8372,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8440,10 +8452,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8487,28 +8499,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8533,28 +8545,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8613,10 +8625,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8660,28 +8672,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8706,28 +8718,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8786,10 +8798,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8833,28 +8845,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8879,28 +8891,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9017,10 +9029,10 @@
       <c r="I308">
         <f>((C308-C307)^2+(D308- D307)^2)^.5</f>
       </c>
-      <c r="J308" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K308" s="2" t="s">
+      <c r="J308" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K308" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L308" t="n">
@@ -9064,28 +9076,28 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="s" s="2">
+      <c r="A310" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B310" t="s" s="2">
+      <c r="B310" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C310" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D310" t="s" s="2">
+      <c r="C310" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D310" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E310" t="s" s="2">
+      <c r="E310" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F310" t="s" s="2">
+      <c r="F310" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G310" t="s" s="2">
+      <c r="G310" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H310" t="s" s="2">
+      <c r="H310" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9110,28 +9122,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C312" t="s" s="2">
+      <c r="C312" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D312" t="s" s="2">
+      <c r="D312" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I312" t="s" s="2">
+      <c r="I312" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9248,10 +9260,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9295,28 +9307,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9341,28 +9353,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9421,10 +9433,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9468,28 +9480,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9514,28 +9526,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9623,10 +9635,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9670,28 +9682,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9716,28 +9728,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9825,10 +9837,10 @@
       <c r="I336">
         <f>((C336-C335)^2+(D336- D335)^2)^.5</f>
       </c>
-      <c r="J336" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K336" s="2" t="s">
+      <c r="J336" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K336" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L336" t="n">
@@ -9872,28 +9884,28 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="s" s="2">
+      <c r="A338" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B338" t="s" s="2">
+      <c r="B338" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C338" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D338" t="s" s="2">
+      <c r="C338" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D338" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E338" t="s" s="2">
+      <c r="E338" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F338" t="s" s="2">
+      <c r="F338" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G338" t="s" s="2">
+      <c r="G338" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H338" t="s" s="2">
+      <c r="H338" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9918,28 +9930,28 @@
       </c>
     </row>
     <row r="340">
-      <c r="B340" t="s" s="2">
+      <c r="B340" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C340" t="s" s="2">
+      <c r="C340" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D340" t="s" s="2">
+      <c r="D340" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E340" t="s" s="2">
+      <c r="E340" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F340" t="s" s="2">
+      <c r="F340" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G340" t="s" s="2">
+      <c r="G340" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H340" t="s" s="2">
+      <c r="H340" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I340" t="s" s="2">
+      <c r="I340" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10056,10 +10068,10 @@
       <c r="I344">
         <f>((C344-C343)^2+(D344- D343)^2)^.5</f>
       </c>
-      <c r="J344" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K344" s="2" t="s">
+      <c r="J344" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K344" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L344" t="n">
@@ -10103,28 +10115,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="s" s="2">
+      <c r="A346" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C346" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D346" t="s" s="2">
+      <c r="C346" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D346" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10149,28 +10161,28 @@
       </c>
     </row>
     <row r="348">
-      <c r="B348" t="s" s="2">
+      <c r="B348" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C348" t="s" s="2">
+      <c r="C348" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D348" t="s" s="2">
+      <c r="D348" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E348" t="s" s="2">
+      <c r="E348" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F348" t="s" s="2">
+      <c r="F348" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G348" t="s" s="2">
+      <c r="G348" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H348" t="s" s="2">
+      <c r="H348" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I348" t="s" s="2">
+      <c r="I348" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10258,10 +10270,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="2" t="s">
+      <c r="J351" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10305,28 +10317,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="2">
+      <c r="A353" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="2">
+      <c r="C353" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10351,28 +10363,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="2">
+      <c r="C355" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="2">
+      <c r="D355" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="2">
+      <c r="I355" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10431,10 +10443,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="2" t="s">
+      <c r="J357" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10478,28 +10490,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="2">
+      <c r="A359" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="2">
+      <c r="C359" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10524,28 +10536,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="2">
+      <c r="C361" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="2">
+      <c r="D361" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="2">
+      <c r="I361" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10604,10 +10616,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="2" t="s">
+      <c r="J363" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10651,28 +10663,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="2">
+      <c r="A365" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="2">
+      <c r="C365" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10697,28 +10709,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="2">
+      <c r="C367" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="2">
+      <c r="D367" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="2">
+      <c r="I367" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10777,10 +10789,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="2" t="s">
+      <c r="J369" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10824,28 +10836,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="2">
+      <c r="A371" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="2">
+      <c r="C371" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10870,28 +10882,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="2">
+      <c r="B373" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="2">
+      <c r="C373" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="2">
+      <c r="D373" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="2">
+      <c r="E373" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="2">
+      <c r="F373" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="2">
+      <c r="G373" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="2">
+      <c r="H373" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="2">
+      <c r="I373" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10979,10 +10991,10 @@
       <c r="I376">
         <f>((C376-C375)^2+(D376- D375)^2)^.5</f>
       </c>
-      <c r="J376" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K376" s="2" t="s">
+      <c r="J376" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K376" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L376" t="n">
